--- a/khppp/testData.xlsx
+++ b/khppp/testData.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Users" sheetId="2" r:id="rId2"/>
+    <sheet name="Groups" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -68,7 +69,46 @@
     <t>addUser</t>
   </si>
   <si>
-    <t>sergio</t>
+    <t>GroupName</t>
+  </si>
+  <si>
+    <t>DepartmentName</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>validTabNameTest</t>
+  </si>
+  <si>
+    <t>addGroupBtnNameTest</t>
+  </si>
+  <si>
+    <t>addGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> userEmptyLogin</t>
+  </si>
+  <si>
+    <t>Please, enter login and password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addGroupWithoutName </t>
+  </si>
+  <si>
+    <t>addGroupWithoutDep</t>
+  </si>
+  <si>
+    <t>OstrTestWithoutDep</t>
+  </si>
+  <si>
+    <t>Choose department</t>
+  </si>
+  <si>
+    <t>sashaa</t>
+  </si>
+  <si>
+    <t>OstrTestGroup4</t>
   </si>
 </sst>
 </file>
@@ -411,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,6 +521,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -491,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +576,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1">
-        <v>152</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -542,10 +590,121 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/khppp/testData.xlsx
+++ b/khppp/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -54,15 +54,6 @@
     <t>LabManager111</t>
   </si>
   <si>
-    <t>Incorrect login or password</t>
-  </si>
-  <si>
-    <t>Admin Admin (ADMIN)</t>
-  </si>
-  <si>
-    <t>LabManager LabManager (LAB_MANAGER)</t>
-  </si>
-  <si>
     <t>users</t>
   </si>
   <si>
@@ -108,7 +99,13 @@
     <t>sashaa</t>
   </si>
   <si>
-    <t>OstrTestGroup4</t>
+    <t>Admin Admin (admin)</t>
+  </si>
+  <si>
+    <t>LabManager LabManager (lab manager)</t>
+  </si>
+  <si>
+    <t>OstrTestGroup5</t>
   </si>
 </sst>
 </file>
@@ -453,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +487,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -504,7 +501,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -517,16 +514,13 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -567,7 +561,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -581,7 +575,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -590,10 +584,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -606,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,15 +625,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -650,7 +644,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -661,7 +655,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -670,15 +664,15 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -687,12 +681,12 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -701,10 +695,10 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/khppp/testData.xlsx
+++ b/khppp/testData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>OstrTestGroup5</t>
+  </si>
+  <si>
+    <t>Incorrect login or password</t>
   </si>
 </sst>
 </file>
@@ -514,6 +517,9 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">

--- a/khppp/testData.xlsx
+++ b/khppp/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -105,10 +105,10 @@
     <t>LabManager LabManager (lab manager)</t>
   </si>
   <si>
-    <t>OstrTestGroup5</t>
-  </si>
-  <si>
-    <t>Incorrect login or password</t>
+    <t>Sorry, something terrible happened to server.</t>
+  </si>
+  <si>
+    <t>OstrTestGroup6</t>
   </si>
 </sst>
 </file>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +518,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>

--- a/khppp/testData.xlsx
+++ b/khppp/testData.xlsx
@@ -108,7 +108,7 @@
     <t>Sorry, something terrible happened to server.</t>
   </si>
   <si>
-    <t>OstrTestGroup6</t>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -607,7 +607,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/khppp/testData.xlsx
+++ b/khppp/testData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Users" sheetId="2" r:id="rId2"/>
-    <sheet name="Groups" sheetId="3" r:id="rId3"/>
+    <sheet name="Status" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -54,61 +54,31 @@
     <t>LabManager111</t>
   </si>
   <si>
+    <t>Incorrect login or password</t>
+  </si>
+  <si>
+    <t>Admin Admin (ADMIN)</t>
+  </si>
+  <si>
+    <t>LabManager LabManager (LAB_MANAGER)</t>
+  </si>
+  <si>
     <t>users</t>
   </si>
   <si>
     <t>addUser</t>
   </si>
   <si>
-    <t>GroupName</t>
-  </si>
-  <si>
-    <t>DepartmentName</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>validTabNameTest</t>
-  </si>
-  <si>
-    <t>addGroupBtnNameTest</t>
-  </si>
-  <si>
-    <t>addGroup</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> userEmptyLogin</t>
-  </si>
-  <si>
-    <t>Please, enter login and password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addGroupWithoutName </t>
-  </si>
-  <si>
-    <t>addGroupWithoutDep</t>
-  </si>
-  <si>
-    <t>OstrTestWithoutDep</t>
-  </si>
-  <si>
-    <t>Choose department</t>
-  </si>
-  <si>
-    <t>sashaa</t>
-  </si>
-  <si>
-    <t>Admin Admin (admin)</t>
-  </si>
-  <si>
-    <t>LabManager LabManager (lab manager)</t>
-  </si>
-  <si>
-    <t>Sorry, something terrible happened to server.</t>
-  </si>
-  <si>
-    <t>Test</t>
+    <t>sergio</t>
+  </si>
+  <si>
+    <t>Mentor_Mentor</t>
+  </si>
+  <si>
+    <t>Mentor111</t>
+  </si>
+  <si>
+    <t>changeStatus</t>
   </si>
 </sst>
 </file>
@@ -451,21 +421,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -490,10 +460,10 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -504,10 +474,10 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -518,15 +488,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -540,18 +502,18 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="38.5546875" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,9 +527,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -576,12 +538,12 @@
         <v>9</v>
       </c>
       <c r="D2" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -590,10 +552,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -604,23 +566,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -630,85 +589,19 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/khppp/testData.xlsx
+++ b/khppp/testData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Users" sheetId="2" r:id="rId2"/>
     <sheet name="Status" sheetId="3" r:id="rId3"/>
+    <sheet name="Groups" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -79,6 +80,39 @@
   </si>
   <si>
     <t>changeStatus</t>
+  </si>
+  <si>
+    <t>GroupName</t>
+  </si>
+  <si>
+    <t>DepartmentName</t>
+  </si>
+  <si>
+    <t>validTabNameTest</t>
+  </si>
+  <si>
+    <t>addGroupBtnNameTest</t>
+  </si>
+  <si>
+    <t>addGroup</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addGroupWithoutName </t>
+  </si>
+  <si>
+    <t>addGroupWithoutDep</t>
+  </si>
+  <si>
+    <t>OstrTestWithoutDep</t>
+  </si>
+  <si>
+    <t>Choose department</t>
   </si>
 </sst>
 </file>
@@ -568,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -604,4 +638,113 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/khppp/testData.xlsx
+++ b/khppp/testData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Users" sheetId="2" r:id="rId2"/>
     <sheet name="Groups" sheetId="3" r:id="rId3"/>
+    <sheet name="Roles" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="71">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -81,9 +82,6 @@
     <t xml:space="preserve"> userEmptyLogin</t>
   </si>
   <si>
-    <t>Please, enter login and password</t>
-  </si>
-  <si>
     <t xml:space="preserve">addGroupWithoutName </t>
   </si>
   <si>
@@ -105,20 +103,151 @@
     <t>LabManager LabManager (lab manager)</t>
   </si>
   <si>
-    <t>Sorry, something terrible happened to server.</t>
-  </si>
-  <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Mentor_Mentor</t>
+  </si>
+  <si>
+    <t>Mentor111</t>
+  </si>
+  <si>
+    <t>Mentor Mentor (mentor)</t>
+  </si>
+  <si>
+    <t>Mentee_Mentee</t>
+  </si>
+  <si>
+    <t>Mentee111</t>
+  </si>
+  <si>
+    <t>Mentee Mentee (mentee)</t>
+  </si>
+  <si>
+    <t>vasya</t>
+  </si>
+  <si>
+    <t>pupkin</t>
+  </si>
+  <si>
+    <t>pupkin@epam.com</t>
+  </si>
+  <si>
+    <t>addUserCustomEmail</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>LAB_MANAGER</t>
+  </si>
+  <si>
+    <t>MENTOR</t>
+  </si>
+  <si>
+    <t>MENTEE</t>
+  </si>
+  <si>
+    <t>RESOURCE_MANAGER</t>
+  </si>
+  <si>
+    <t>IvanAdmin</t>
+  </si>
+  <si>
+    <t>IvanovAdmin</t>
+  </si>
+  <si>
+    <t>PetroLM</t>
+  </si>
+  <si>
+    <t>PetrovLM</t>
+  </si>
+  <si>
+    <t>ViktorovMentor</t>
+  </si>
+  <si>
+    <t>ValeriiMentor</t>
+  </si>
+  <si>
+    <t>VVMentee</t>
+  </si>
+  <si>
+    <t>VRMentee</t>
+  </si>
+  <si>
+    <t>NikRM</t>
+  </si>
+  <si>
+    <t>UserSurname</t>
+  </si>
+  <si>
+    <t>UsersRole</t>
+  </si>
+  <si>
+    <t>adminAddNewUser</t>
+  </si>
+  <si>
+    <t>IPetroLM</t>
+  </si>
+  <si>
+    <t>IPetrovLM</t>
+  </si>
+  <si>
+    <t>IViktMentor</t>
+  </si>
+  <si>
+    <t>IViktorMentor</t>
+  </si>
+  <si>
+    <t>IGeorgMentee</t>
+  </si>
+  <si>
+    <t>IGrigMentee</t>
+  </si>
+  <si>
+    <t>Incorrect login or password</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>addUserWithoutName</t>
+  </si>
+  <si>
+    <t>addUserWithoutSurname</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>You input last name incorrect.</t>
+  </si>
+  <si>
+    <t>You input first name incorrect.</t>
+  </si>
+  <si>
+    <t>Grigor</t>
+  </si>
+  <si>
+    <t>Grukov</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,14 +270,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -451,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +622,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -504,7 +636,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -518,15 +650,74 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -537,10 +728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,9 +740,11 @@
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,8 +757,11 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -576,10 +772,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -590,10 +786,151 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -606,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +1007,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -678,7 +1015,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -692,7 +1029,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -701,10 +1038,154 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
         <v>24</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/khppp/testData.xlsx
+++ b/khppp/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Mentor111</t>
   </si>
   <si>
-    <t>changeStatus</t>
-  </si>
-  <si>
     <t>GroupName</t>
   </si>
   <si>
@@ -113,6 +110,18 @@
   </si>
   <si>
     <t>Choose department</t>
+  </si>
+  <si>
+    <t>changeStatusByMentor</t>
+  </si>
+  <si>
+    <t>changeStatusByMentee</t>
+  </si>
+  <si>
+    <t>Mentee_Mentee</t>
+  </si>
+  <si>
+    <t>Mentee111</t>
   </si>
 </sst>
 </file>
@@ -600,10 +609,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,13 +635,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -644,7 +664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -668,15 +688,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -687,7 +707,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -698,7 +718,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -707,15 +727,15 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -724,12 +744,12 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -738,10 +758,10 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/khppp/testData.xlsx
+++ b/khppp/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="74">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -58,21 +58,9 @@
     <t>Incorrect login or password</t>
   </si>
   <si>
-    <t>Admin Admin (ADMIN)</t>
-  </si>
-  <si>
-    <t>LabManager LabManager (LAB_MANAGER)</t>
-  </si>
-  <si>
     <t>users</t>
   </si>
   <si>
-    <t>addUser</t>
-  </si>
-  <si>
-    <t>sergio</t>
-  </si>
-  <si>
     <t>Mentor_Mentor</t>
   </si>
   <si>
@@ -85,24 +73,9 @@
     <t>DepartmentName</t>
   </si>
   <si>
-    <t>validTabNameTest</t>
-  </si>
-  <si>
-    <t>addGroupBtnNameTest</t>
-  </si>
-  <si>
-    <t>addGroup</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>QA</t>
   </si>
   <si>
-    <t xml:space="preserve">addGroupWithoutName </t>
-  </si>
-  <si>
     <t>addGroupWithoutDep</t>
   </si>
   <si>
@@ -122,6 +95,150 @@
   </si>
   <si>
     <t>Mentee111</t>
+  </si>
+  <si>
+    <t>Mentee</t>
+  </si>
+  <si>
+    <t>validTabName</t>
+  </si>
+  <si>
+    <t>addGroupBtnName</t>
+  </si>
+  <si>
+    <t>addEmptyGroup</t>
+  </si>
+  <si>
+    <t>Test20</t>
+  </si>
+  <si>
+    <t>addGroupWithoutName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
+  </si>
+  <si>
+    <t>assignTaskCheckboxesActive</t>
+  </si>
+  <si>
+    <t>addGroupWithMentees</t>
+  </si>
+  <si>
+    <t>GroupWitnMentee</t>
+  </si>
+  <si>
+    <t>sashaa sashaa</t>
+  </si>
+  <si>
+    <t>validAddGroupTabName</t>
+  </si>
+  <si>
+    <t>validGroupNameLabel</t>
+  </si>
+  <si>
+    <t>verifyLabels</t>
+  </si>
+  <si>
+    <t>verifyButtonsDisplayed</t>
+  </si>
+  <si>
+    <t>groupNameFieldDoesNotContainOneSymbol</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>groupNameFieldMustStartsNotFromDigit</t>
+  </si>
+  <si>
+    <t>454gdg</t>
+  </si>
+  <si>
+    <t>groupNameFieldMustStartsNotFromSpecialSymbol</t>
+  </si>
+  <si>
+    <t>^&amp;*%</t>
+  </si>
+  <si>
+    <t>addUserCustomEmail</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Ivanov</t>
+  </si>
+  <si>
+    <t>ivanov@epam.com</t>
+  </si>
+  <si>
+    <t>adminAddNewUser</t>
+  </si>
+  <si>
+    <t>IvanMentor</t>
+  </si>
+  <si>
+    <t>IvanovMentor</t>
+  </si>
+  <si>
+    <t>MENTOR</t>
+  </si>
+  <si>
+    <t>ILabManager</t>
+  </si>
+  <si>
+    <t>LabaMan</t>
+  </si>
+  <si>
+    <t>LAB_MANAGER</t>
+  </si>
+  <si>
+    <t>Imentee</t>
+  </si>
+  <si>
+    <t>MENTEE</t>
+  </si>
+  <si>
+    <t>IAdmin</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>addUserWithoutName</t>
+  </si>
+  <si>
+    <t>Petrov</t>
+  </si>
+  <si>
+    <t>You input first name incorrect.</t>
+  </si>
+  <si>
+    <t>Petro</t>
+  </si>
+  <si>
+    <t>You input last name incorrect.</t>
+  </si>
+  <si>
+    <t>addUserWithoutSurname</t>
+  </si>
+  <si>
+    <t>Admin Admin (admin)</t>
+  </si>
+  <si>
+    <t>LabManager LabManager (lab manager)</t>
+  </si>
+  <si>
+    <t>userEmptyLogin</t>
+  </si>
+  <si>
+    <t>ivan</t>
+  </si>
+  <si>
+    <t>ivanov</t>
+  </si>
+  <si>
+    <t>userEmptyPassword</t>
   </si>
 </sst>
 </file>
@@ -464,21 +581,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
-    <col min="4" max="4" width="40.88671875" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -503,10 +620,10 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -517,10 +634,10 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -531,6 +648,34 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -542,21 +687,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5546875" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,9 +716,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -584,9 +730,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -595,10 +741,133 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -611,18 +880,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -633,26 +902,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -662,22 +931,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="50.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -688,80 +957,212 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/khppp/testData.xlsx
+++ b/khppp/testData.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="926"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="926" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GroupsTest" sheetId="16" r:id="rId1"/>
+    <sheet name="AssignTasksTest" sheetId="17" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>UserName</t>
   </si>
@@ -61,21 +62,6 @@
     <t>MENTEE</t>
   </si>
   <si>
-    <t>trololo20</t>
-  </si>
-  <si>
-    <t>menteeForTest1</t>
-  </si>
-  <si>
-    <t>groupForTest1</t>
-  </si>
-  <si>
-    <t>groupForTest2</t>
-  </si>
-  <si>
-    <t>menteeForTest1 menteeForTest1</t>
-  </si>
-  <si>
     <t>TestCaseName</t>
   </si>
   <si>
@@ -104,16 +90,135 @@
   </si>
   <si>
     <t>groupNameFieldFromSpecialSymbol</t>
+  </si>
+  <si>
+    <t>groupForTest12</t>
+  </si>
+  <si>
+    <t>groupForTest23</t>
+  </si>
+  <si>
+    <t>menteeForTesttt</t>
+  </si>
+  <si>
+    <t>menteeForTesttt menteeForTesttt</t>
+  </si>
+  <si>
+    <t>Test20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          </t>
+  </si>
+  <si>
+    <t>menteesAreDisplayedInSelectedMenteesField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           </t>
+  </si>
+  <si>
+    <t>MenteeName</t>
+  </si>
+  <si>
+    <t>RomanRahozhyn</t>
+  </si>
+  <si>
+    <t>correctlyAssignTaskToOneMentee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t>TaskType</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Department_Name</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>AssignTask</t>
+  </si>
+  <si>
+    <t>Servlets</t>
+  </si>
+  <si>
+    <t>AssignTaskPopUp</t>
+  </si>
+  <si>
+    <t>http://10.23.14.111:8080/epamKhPPPbuild0.4/assignTaskFromGroup.do?groupId=107&amp;userId=117</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,13 +241,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -447,18 +555,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
     <col min="9" max="9" width="32.42578125" customWidth="1"/>
@@ -466,7 +574,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -492,7 +600,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -503,7 +611,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -512,10 +620,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -523,10 +631,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -534,13 +657,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -548,7 +683,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -556,15 +709,48 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
@@ -575,7 +761,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -586,7 +787,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -596,6 +812,111 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="86.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/khppp/testData.xlsx
+++ b/khppp/testData.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="926"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="926" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GroupsTest" sheetId="16" r:id="rId1"/>
+    <sheet name="StatusTest" sheetId="17" r:id="rId2"/>
+    <sheet name="SubgroupTest" sheetId="18" r:id="rId3"/>
+    <sheet name="GroupTasksTest" sheetId="19" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="48">
   <si>
     <t>UserName</t>
   </si>
@@ -104,6 +107,60 @@
   </si>
   <si>
     <t>groupNameFieldFromSpecialSymbol</t>
+  </si>
+  <si>
+    <t>preConditionsMentor</t>
+  </si>
+  <si>
+    <t>preConditionsMentee</t>
+  </si>
+  <si>
+    <t>changeStatusByMentor</t>
+  </si>
+  <si>
+    <t>Mentor_Mentor</t>
+  </si>
+  <si>
+    <t>Mentor111</t>
+  </si>
+  <si>
+    <t>Mentee_Mentee</t>
+  </si>
+  <si>
+    <t>Mentee111</t>
+  </si>
+  <si>
+    <t>menteeName</t>
+  </si>
+  <si>
+    <t>Mentee</t>
+  </si>
+  <si>
+    <t>addNewEmptySubgroup</t>
+  </si>
+  <si>
+    <t>addNewSubgroup</t>
+  </si>
+  <si>
+    <t>SUBGROUP_NAME</t>
+  </si>
+  <si>
+    <t>irenEmptySubgroup</t>
+  </si>
+  <si>
+    <t>irenSubgroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>TaskName</t>
+  </si>
+  <si>
+    <t>filtByNameCheck</t>
+  </si>
+  <si>
+    <t>C# Core</t>
   </si>
 </sst>
 </file>
@@ -447,24 +504,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
-    <col min="9" max="9" width="32.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -490,7 +547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -500,8 +557,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -521,10 +581,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
@@ -532,13 +607,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
       <c r="G5" t="s">
         <v>18</v>
       </c>
@@ -546,26 +633,71 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
       <c r="H6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
       <c r="G8" t="s">
         <v>7</v>
       </c>
@@ -573,10 +705,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
       <c r="G9" t="s">
         <v>9</v>
       </c>
@@ -584,15 +731,235 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/khppp/testData.xlsx
+++ b/khppp/testData.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="926"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16845" windowHeight="7770" tabRatio="926" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="GroupsTest" sheetId="16" r:id="rId1"/>
+    <sheet name="LoginTest" sheetId="20" r:id="rId1"/>
+    <sheet name="UsersTest" sheetId="19" r:id="rId2"/>
+    <sheet name="GroupsTest" sheetId="16" r:id="rId3"/>
+    <sheet name="StatusTest" sheetId="17" r:id="rId4"/>
+    <sheet name="SubgroupTest" sheetId="18" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="96">
   <si>
     <t>UserName</t>
   </si>
@@ -104,6 +108,204 @@
   </si>
   <si>
     <t>groupNameFieldFromSpecialSymbol</t>
+  </si>
+  <si>
+    <t>preConditionsMentor</t>
+  </si>
+  <si>
+    <t>preConditionsMentee</t>
+  </si>
+  <si>
+    <t>changeStatusByMentor</t>
+  </si>
+  <si>
+    <t>Mentor_Mentor</t>
+  </si>
+  <si>
+    <t>Mentor111</t>
+  </si>
+  <si>
+    <t>Mentee_Mentee</t>
+  </si>
+  <si>
+    <t>Mentee111</t>
+  </si>
+  <si>
+    <t>menteeName</t>
+  </si>
+  <si>
+    <t>Mentee</t>
+  </si>
+  <si>
+    <t>addNewEmptySubgroup</t>
+  </si>
+  <si>
+    <t>addNewSubgroup</t>
+  </si>
+  <si>
+    <t>SUBGROUP_NAME</t>
+  </si>
+  <si>
+    <t>irenEmptySubgroup</t>
+  </si>
+  <si>
+    <t>irenSubgroup</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Admin111</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Ivanov</t>
+  </si>
+  <si>
+    <t>ivanov@epam.com</t>
+  </si>
+  <si>
+    <t>IvanMentor</t>
+  </si>
+  <si>
+    <t>IvanovMentor</t>
+  </si>
+  <si>
+    <t>MENTOR</t>
+  </si>
+  <si>
+    <t>LAB_MANAGER</t>
+  </si>
+  <si>
+    <t>Imentee</t>
+  </si>
+  <si>
+    <t>IAdmin</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>Petro</t>
+  </si>
+  <si>
+    <t>Petrov</t>
+  </si>
+  <si>
+    <t>You input first name incorrect.</t>
+  </si>
+  <si>
+    <t>You input last name incorrect.</t>
+  </si>
+  <si>
+    <t>MethodName</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>addUserCustomEmail</t>
+  </si>
+  <si>
+    <t>adminAddNewUser</t>
+  </si>
+  <si>
+    <t>addUserWithoutName</t>
+  </si>
+  <si>
+    <t>addUserWithoutSurname</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Admin_Admin</t>
+  </si>
+  <si>
+    <t>TestCase Name</t>
+  </si>
+  <si>
+    <t>userLogin</t>
+  </si>
+  <si>
+    <t>Admin Admin (admin)</t>
+  </si>
+  <si>
+    <t>Mentor Mentor (mentor)</t>
+  </si>
+  <si>
+    <t>Mentee Mentee (mentee)</t>
+  </si>
+  <si>
+    <t>LabManager LabManager (lab manager)</t>
+  </si>
+  <si>
+    <t>userEmptyLogin</t>
+  </si>
+  <si>
+    <t>userEmptyPassword</t>
+  </si>
+  <si>
+    <t>userIncorrectLogin</t>
+  </si>
+  <si>
+    <t>Incorrect login or password</t>
+  </si>
+  <si>
+    <t>ILabAuto</t>
+  </si>
+  <si>
+    <t>LabAuto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    </t>
   </si>
 </sst>
 </file>
@@ -139,8 +341,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,10 +649,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1">
+        <v>111</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2">
+        <v>152</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,6 +1035,21 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -520,11 +1070,32 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
@@ -539,6 +1110,18 @@
       <c r="B5" t="s">
         <v>19</v>
       </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
       <c r="G5" t="s">
         <v>18</v>
       </c>
@@ -550,6 +1133,24 @@
       <c r="A6" t="s">
         <v>25</v>
       </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>82</v>
+      </c>
       <c r="H6" t="s">
         <v>6</v>
       </c>
@@ -558,14 +1159,47 @@
       <c r="A7" t="s">
         <v>26</v>
       </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
       <c r="G7" t="s">
         <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
       <c r="G8" t="s">
         <v>7</v>
       </c>
@@ -577,6 +1211,21 @@
       <c r="A9" t="s">
         <v>28</v>
       </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
       <c r="G9" t="s">
         <v>9</v>
       </c>
@@ -588,11 +1237,158 @@
       <c r="A10" t="s">
         <v>29</v>
       </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/khppp/testData.xlsx
+++ b/khppp/testData.xlsx
@@ -301,9 +301,6 @@
     <t>Servlets</t>
   </si>
   <si>
-    <t>http://10.23.14.111:8080/epamKhPPPbuild0.4/assignTaskFromGroup.do?groupId=107&amp;userId=117</t>
-  </si>
-  <si>
     <t>Anton</t>
   </si>
   <si>
@@ -328,9 +325,6 @@
     <t xml:space="preserve">                      </t>
   </si>
   <si>
-    <t>groupForTest127</t>
-  </si>
-  <si>
     <t>menteeForTesttht menteeForTesttht</t>
   </si>
   <si>
@@ -346,9 +340,6 @@
     <t xml:space="preserve">                  </t>
   </si>
   <si>
-    <t>groupForTest237</t>
-  </si>
-  <si>
     <t xml:space="preserve">                        </t>
   </si>
   <si>
@@ -362,6 +353,15 @@
   </si>
   <si>
     <t xml:space="preserve">                          </t>
+  </si>
+  <si>
+    <t>http://10.23.13.168:8080/epamKhPPPbuild0.5/assignTaskFromGroup.do?groupId=107&amp;userId=117</t>
+  </si>
+  <si>
+    <t>groupForTest126</t>
+  </si>
+  <si>
+    <t>groupForTest236</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,10 +1116,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>14</v>
@@ -1135,7 +1135,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>80</v>
@@ -1144,13 +1144,13 @@
         <v>79</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>6</v>
@@ -1164,22 +1164,22 @@
         <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>6</v>
@@ -1193,19 +1193,19 @@
         <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>81</v>
@@ -1222,25 +1222,25 @@
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="I7" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1251,13 +1251,13 @@
         <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>80</v>
@@ -1286,13 +1286,13 @@
         <v>80</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>9</v>
@@ -1309,19 +1309,19 @@
         <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>10</v>
@@ -1471,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,7 +1561,7 @@
         <v>92</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1645,10 +1645,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
@@ -1661,7 +1661,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>75</v>
@@ -1676,7 +1676,7 @@
         <v>75</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>6</v>

--- a/khppp/testData.xlsx
+++ b/khppp/testData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="117">
   <si>
     <t>UserName</t>
   </si>
@@ -358,10 +358,19 @@
     <t>http://10.23.13.168:8080/epamKhPPPbuild0.5/assignTaskFromGroup.do?groupId=107&amp;userId=117</t>
   </si>
   <si>
-    <t>groupForTest126</t>
-  </si>
-  <si>
-    <t>groupForTest236</t>
+    <t xml:space="preserve">                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                             </t>
+  </si>
+  <si>
+    <t>groupForTest244</t>
+  </si>
+  <si>
+    <t>groupForTest144</t>
+  </si>
+  <si>
+    <t>groupForTest166</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1047,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,11 +1105,21 @@
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1124,8 +1143,12 @@
       <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1135,7 +1158,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>80</v>
@@ -1150,7 +1173,7 @@
         <v>100</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>6</v>
@@ -1173,13 +1196,13 @@
         <v>103</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>105</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>6</v>
@@ -1234,10 +1257,10 @@
         <v>102</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>98</v>
@@ -1254,7 +1277,7 @@
         <v>104</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>100</v>
@@ -1283,7 +1306,7 @@
         <v>79</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>98</v>

--- a/khppp/testData.xlsx
+++ b/khppp/testData.xlsx
@@ -367,10 +367,10 @@
     <t>groupForTest244</t>
   </si>
   <si>
-    <t>groupForTest144</t>
-  </si>
-  <si>
-    <t>groupForTest166</t>
+    <t>groupForTest344</t>
+  </si>
+  <si>
+    <t>groupForTest266</t>
   </si>
 </sst>
 </file>
@@ -1047,14 +1047,14 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
@@ -1173,7 +1173,7 @@
         <v>100</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>6</v>
@@ -1202,7 +1202,7 @@
         <v>105</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>6</v>
